--- a/Datos/Anuario2024/130602_RodajesReportajes.xlsx
+++ b/Datos/Anuario2024/130602_RodajesReportajes.xlsx
@@ -1,132 +1,154 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Publicaciones\Anuario\2024\xls\Cap13\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="0" sheetId="122" r:id="rId1"/>
+    <sheet name="1" sheetId="121" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_R1_1" localSheetId="1">#REF!</definedName>
     <definedName name="_R1_1">#REF!</definedName>
+    <definedName name="_R1_2" localSheetId="1">#REF!</definedName>
     <definedName name="_R1_2">#REF!</definedName>
+    <definedName name="_R1_3" localSheetId="1">#REF!</definedName>
     <definedName name="_R1_3">#REF!</definedName>
+    <definedName name="_R1_4" localSheetId="1">#REF!</definedName>
     <definedName name="_R1_4">#REF!</definedName>
+    <definedName name="_R2_1" localSheetId="1">#REF!</definedName>
     <definedName name="_R2_1">#REF!</definedName>
+    <definedName name="_R2_2" localSheetId="1">#REF!</definedName>
     <definedName name="_R2_2">#REF!</definedName>
+    <definedName name="_R2_3" localSheetId="1">#REF!</definedName>
     <definedName name="_R2_3">#REF!</definedName>
     <definedName name="_R2_4">'[1]4.5'!$A$1:$H$6</definedName>
     <definedName name="_R2_5">'[1]4.6'!$A$1:$C$6</definedName>
+    <definedName name="_R3_1" localSheetId="1">#REF!</definedName>
     <definedName name="_R3_1">#REF!</definedName>
+    <definedName name="_R3_2" localSheetId="1">#REF!</definedName>
     <definedName name="_R3_2">#REF!</definedName>
+    <definedName name="_R3_3" localSheetId="1">#REF!</definedName>
     <definedName name="_R3_3">#REF!</definedName>
+    <definedName name="_R3_4" localSheetId="1">#REF!</definedName>
     <definedName name="_R3_4">#REF!</definedName>
+    <definedName name="_R3_5" localSheetId="1">#REF!</definedName>
     <definedName name="_R3_5">#REF!</definedName>
+    <definedName name="_R3_6" localSheetId="1">#REF!</definedName>
     <definedName name="_R3_6">#REF!</definedName>
+    <definedName name="_R3_7" localSheetId="1">#REF!</definedName>
     <definedName name="_R3_7">#REF!</definedName>
+    <definedName name="_R3_8" localSheetId="1">#REF!</definedName>
     <definedName name="_R3_8">#REF!</definedName>
+    <definedName name="_R3_9" localSheetId="1">#REF!</definedName>
     <definedName name="_R3_9">#REF!</definedName>
+    <definedName name="_R4_1" localSheetId="1">#REF!</definedName>
     <definedName name="_R4_1">#REF!</definedName>
     <definedName name="_R4_2">#REF!</definedName>
+    <definedName name="_R4_3" localSheetId="1">#REF!</definedName>
     <definedName name="_R4_3">#REF!</definedName>
+    <definedName name="_R4_4" localSheetId="1">#REF!</definedName>
     <definedName name="_R4_4">#REF!</definedName>
+    <definedName name="_R4_5" localSheetId="1">#REF!</definedName>
     <definedName name="_R4_5">#REF!</definedName>
+    <definedName name="_R4_6" localSheetId="1">#REF!</definedName>
     <definedName name="_R4_6">#REF!</definedName>
+    <definedName name="_R4_7" localSheetId="1">#REF!</definedName>
     <definedName name="_R4_7">#REF!</definedName>
+    <definedName name="_R5_1" localSheetId="1">#REF!</definedName>
     <definedName name="_R5_1">#REF!</definedName>
     <definedName name="_R5_2">'[1]7.3d'!$A$1:$H$270</definedName>
+    <definedName name="_R5_8" localSheetId="1">#REF!</definedName>
     <definedName name="_R5_8">#REF!</definedName>
     <definedName name="_R6_1">#REF!</definedName>
     <definedName name="_R6_2">#REF!</definedName>
     <definedName name="_R6_3">'[1]11.2'!$A$1:$F$17</definedName>
     <definedName name="_R7_1">#REF!</definedName>
+    <definedName name="_R8_1" localSheetId="1">#REF!</definedName>
     <definedName name="_R8_1">#REF!</definedName>
-    <definedName name="_R1_1" localSheetId="1">#REF!</definedName>
-    <definedName name="_R1_2" localSheetId="1">#REF!</definedName>
-    <definedName name="_R1_3" localSheetId="1">#REF!</definedName>
-    <definedName name="_R1_4" localSheetId="1">#REF!</definedName>
-    <definedName name="_R2_1" localSheetId="1">#REF!</definedName>
-    <definedName name="_R2_2" localSheetId="1">#REF!</definedName>
-    <definedName name="_R2_3" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_1" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_2" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_3" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_4" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_5" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_6" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_7" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_8" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_9" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_1" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_3" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_4" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_5" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_6" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_7" localSheetId="1">#REF!</definedName>
-    <definedName name="_R5_1" localSheetId="1">#REF!</definedName>
-    <definedName name="_R5_8" localSheetId="1">#REF!</definedName>
-    <definedName name="_R8_1" localSheetId="1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>RODAJES AUDIOVISUALES Y REPORTAJES EN LA VÍA PÚBLICA</t>
+  </si>
+  <si>
+    <t>1. Autorizaciones para rodajes audiovisuales y reportajes fotográficos en dominio público. 2023</t>
+  </si>
+  <si>
+    <t>Fuente: Servicio de ocupación del dominio público municipal. Ayuntamiento de València.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="12"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -151,32 +173,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -246,12 +269,20 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -781,86 +812,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>RODAJES AUDIOVISUALES Y REPORTAJES EN LA VÍA PÚBLICA</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja2">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="24" customWidth="1" min="1" max="2"/>
-    <col width="22.5703125" customWidth="1" min="3" max="3"/>
-    <col width="13.5703125" customWidth="1" min="4" max="4"/>
+    <col min="1" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="9" t="inlineStr">
-        <is>
-          <t>1. Autorizaciones para rodajes audiovisuales y reportajes fotográficos en dominio público. 2023</t>
-        </is>
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>2</v>
       </c>
-      <c r="B1" s="6" t="n"/>
-      <c r="C1" s="4" t="n"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="4"/>
     </row>
-    <row r="2">
-      <c r="A2" s="5" t="n"/>
-      <c r="B2" s="5" t="n"/>
-      <c r="C2" s="7" t="n"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="7"/>
     </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="8" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>287</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de ocupación del dominio público municipal. Ayuntamiento de València.</t>
-        </is>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="90"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="90" orientation="portrait"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0">
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;R&amp;"Times New Roman,Normal"</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>